--- a/doc/user-guide/cookbook/operation/operation-type.xlsx
+++ b/doc/user-guide/cookbook/operation/operation-type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516765D-AF05-4552-ADAE-D174FC4C9D33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7545" tabRatio="713" activeTab="8"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -101,12 +102,6 @@
     <t>factory</t>
   </si>
   <si>
-    <t>product @ factory</t>
-  </si>
-  <si>
-    <t>product @ store</t>
-  </si>
-  <si>
     <t>make product</t>
   </si>
   <si>
@@ -137,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,6 +260,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -300,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,48 +504,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -526,19 +543,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,12 +575,12 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -581,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -590,23 +607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -615,20 +632,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -642,9 +659,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -653,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -662,30 +679,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -705,24 +722,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -733,26 +750,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -763,29 +780,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" customWidth="1"/>
-    <col min="4" max="4" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,12 +837,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -846,21 +863,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -882,12 +899,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
